--- a/audit.xlsx
+++ b/audit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>Catégorie</t>
   </si>
@@ -404,6 +404,168 @@
   </si>
   <si>
     <t>https://www.akamai.com/fr/our-thinking/cdn/what-is-a-cdn</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;&lt;/.hhhtaccess&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> absent, il manque la balise G ZIP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En compressant la  page web et css avec </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">G ZIP, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vous pouvez réduire considerablement le temps de chargement</t>
+    </r>
+  </si>
+  <si>
+    <t>Joindre le fichier &lt;&lt;/.hhhtaccess&gt;&gt; a la racine pour compressez les ressources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> augmenter les performances d’un site Web en activant  mod_gzip ou mod_deflate via</t>
+  </si>
+  <si>
+    <t>https://www.hostinger.fr/tutoriels/compression-gzip</t>
+  </si>
+  <si>
+    <t>&lt;&lt;client-sidde&gt;&gt; et &lt;&lt;serveur-side&gt;&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'approche client-side</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> pour les équipes marketing qui sont en charge de l'optimisation de la conversion et interviennent en continu pour améliorer et personnaliser l'expérience de leurs visiteurs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>L'approche server-side</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> pour les équipes techniques qui mènent des tests et des personnalisations plus complexes et qui souhaitent travailler directement depuis leur environnement développeur. </t>
+    </r>
+  </si>
+  <si>
+    <t>Installer un rendering</t>
+  </si>
+  <si>
+    <t>Pensez évidemment à votre ROI avant tout : il s’agit de trouver le meilleur rapport entre le temps, ainsi que les ressources nécessaires au développement de votre site, et son impact sur l’expérience de vos utilisateurs et, in fine, sur vos revenus.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055261-decidez-entre-client-side-et-server-side-rendering</t>
+  </si>
+  <si>
+    <t>GoogleMy Business</t>
+  </si>
+  <si>
+    <t>parametrez le Google My Businness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google My Business sert à indiquer à Google la Position de votre business sur la carte. Il sert aussi à récupérer des avis. </t>
+  </si>
+  <si>
+    <t>Il est mieux de commencer avec Google My Business</t>
+  </si>
+  <si>
+    <t>https://www.google.com/intl/fr_FR/business/</t>
+  </si>
+  <si>
+    <t>Vérifier que le ste n'a pas de contenu dupliqué</t>
+  </si>
+  <si>
+    <t>Des pages d'un site web ayant du contenu copier-coller ou très similaire sont ce qu'on appelle du "contenu duplique"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le moyen le plus efficace pour détecter le contenu dupliqué qui se cache dans votre site web est d’utiliser un outil de crawl tel que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SEO Spider de Screamingfrog.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours vérifier son site </t>
+  </si>
+  <si>
+    <t>https://www.orixa-media.com/academie/referencement-naturel/redaction/contenu-duplique-impact-seo/</t>
+  </si>
+  <si>
+    <t>cohérence et longueur du contenu</t>
+  </si>
+  <si>
+    <t>Visez 1500 mots pour le court contenu et entre 2100 et 2400 mots pour le long contenu pour votre page du site lorsque c'est cohérent et  pour vos articles de blog, vos pages d'expertises ou d'atualités</t>
+  </si>
+  <si>
+    <t>une bonne redaction web</t>
+  </si>
+  <si>
+    <t>Un contenu peut être long ou cours, ce n’est pas son nombre de mots qui va déterminer sa pertinence. Il n’y a pas de « one size fits all » !  Alternez les contenus longs comme les livres blancs ou encore des études, avec des articles plus courts pour diffuser des conseils, des check-lists…L’essentiel est de répondre à votre objectif qui est, au travers de tout contenu, de répondre aux questions que se posent votre cible, et de le faire avec authenticité et professionnalisme pour leur donner envie d’en lire davantage sur votre entreprise et vos services.</t>
+  </si>
+  <si>
+    <t>https://digitalmint.ch/longueur-contenu-marketing-combien-de-mots-pour-vos-articles-de-blog/</t>
   </si>
 </sst>
 </file>
@@ -532,8 +694,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B3:G41" totalsRowShown="0">
-  <autoFilter ref="B3:G41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B3:G58" totalsRowShown="0">
+  <autoFilter ref="B3:G58"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Catégorie"/>
     <tableColumn id="2" name="Problème identifié"/>
@@ -746,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1202,28 +1364,123 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2180,11 +2437,16 @@
     <hyperlink ref="G33" r:id="rId16"/>
     <hyperlink ref="G39" r:id="rId17"/>
     <hyperlink ref="G41" r:id="rId18"/>
+    <hyperlink ref="G43" r:id="rId19"/>
+    <hyperlink ref="G45" r:id="rId20"/>
+    <hyperlink ref="G47" r:id="rId21"/>
+    <hyperlink ref="G49" r:id="rId22"/>
+    <hyperlink ref="G51" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId19"/>
+  <pageSetup orientation="landscape" r:id="rId24"/>
   <tableParts count="1">
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/audit.xlsx
+++ b/audit.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="139">
   <si>
     <t>Catégorie</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Action recommandée</t>
-  </si>
-  <si>
-    <t>Accessibilité</t>
   </si>
   <si>
     <t>Ajoutez un &lt;title&gt;élément au &lt;head&gt;de votre page. Assurez-vous que le titre indique clairement de quoi parle la page</t>
@@ -112,9 +109,6 @@
     <t>www.w3.org/TR/i18n-html-tech-lang/</t>
   </si>
   <si>
-    <t xml:space="preserve">Balises canonique + Robots </t>
-  </si>
-  <si>
     <t>le code sous n'a pas de balisecanoisue et robots pour indiquer à google la page principale à indexer et les autres pages à sivre</t>
   </si>
   <si>
@@ -149,9 +143,6 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
   </si>
   <si>
-    <t>Images trop grandes par rapport à leur contenant et non compressés</t>
-  </si>
-  <si>
     <t>Plus une image est grande, plus elle est lourde et donc longue à télécharger pour le navigateu</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t xml:space="preserve"> Verifiez l'hiérarchisation de titre</t>
   </si>
   <si>
-    <t>La &lt;&lt;code-base&gt;&gt; n'est pas minifié</t>
-  </si>
-  <si>
     <t>Minifier un fichier signifie retirer les caractère inutiles du fichiers ce qui a pour incidence de diminuer drastiquement sa taille et donc son poids</t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t>SOE &amp; accessibilité</t>
   </si>
   <si>
-    <t>Img Version Responsive</t>
-  </si>
-  <si>
     <t>L'image deverait s'adapter et se centrer automatique a son &lt;&lt;container&gt;&gt;</t>
   </si>
   <si>
@@ -207,9 +192,6 @@
   </si>
   <si>
     <t>https://www.w3schools.com/howto/howto_css_image_responsive.asp</t>
-  </si>
-  <si>
-    <t>Testez le rendering du votre site en version &lt;&lt;mobile-friendly&gt;&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Il permet de vérifier que le site sera adapté pour les visiteur, permet aussi  de voir si le  rendu du site est fait correctement, et donc si Google bot mobile sera capable de l'explore et  de l'indexer </t>
@@ -267,9 +249,6 @@
   </si>
   <si>
     <t>https://www.definitions-marketing.com/definition/social-media-manager/</t>
-  </si>
-  <si>
-    <t>Keywords: courte vs longue traine</t>
   </si>
   <si>
     <t>https://fr.allorank.com/blog/longue-et-courte-traine</t>
@@ -302,9 +281,6 @@
     <t>Toujours commencer par la longue traine</t>
   </si>
   <si>
-    <t>Gérez vos avis</t>
-  </si>
-  <si>
     <t>Il est très important d'encourager les avis favorables et de répondre aux avis favorables et de répondre aux avis négatifs.</t>
   </si>
   <si>
@@ -321,27 +297,6 @@
   </si>
   <si>
     <t>https://www.metatags.org/all-meta-tags-overview/the-expired-metatags/meta-name-keywords/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Débloquez le téléchagement </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>de vos pages</t>
-    </r>
   </si>
   <si>
     <r>
@@ -376,9 +331,6 @@
     <t>Un script qui sera téléchargé en parallèle de l'analyse de la page et exécuté une fois l'analyse de la page terminée</t>
   </si>
   <si>
-    <t>Décidez si un CMS est adapté</t>
-  </si>
-  <si>
     <t>Pour l’instant vous aurez une bonne idée de ce que sont les CMS en théorie. A ce stade, nous allons parler de quelques fonctionnalités spécifiques qu’ils pourraient offrir.</t>
   </si>
   <si>
@@ -391,9 +343,6 @@
     <t>https://www.hostinger.fr/tutoriels/meilleurs-cms</t>
   </si>
   <si>
-    <t>Décidez si l'installation d'un CDN</t>
-  </si>
-  <si>
     <t>Sans les CDN, qui ont la capacité de répliquer et de stocker des informations à partir de serveurs d'origine, puis de rapprocher le contenu numérique de l'endroit où les utilisateurs accèdent au Web, Internet pourrait être considérablement ralenti.</t>
   </si>
   <si>
@@ -404,27 +353,6 @@
   </si>
   <si>
     <t>https://www.akamai.com/fr/our-thinking/cdn/what-is-a-cdn</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>&lt;&lt;/.hhhtaccess&gt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> absent, il manque la balise G ZIP</t>
-    </r>
   </si>
   <si>
     <r>
@@ -511,9 +439,6 @@
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055261-decidez-entre-client-side-et-server-side-rendering</t>
   </si>
   <si>
-    <t>GoogleMy Business</t>
-  </si>
-  <si>
     <t>parametrez le Google My Businness</t>
   </si>
   <si>
@@ -524,9 +449,6 @@
   </si>
   <si>
     <t>https://www.google.com/intl/fr_FR/business/</t>
-  </si>
-  <si>
-    <t>Vérifier que le ste n'a pas de contenu dupliqué</t>
   </si>
   <si>
     <t>Des pages d'un site web ayant du contenu copier-coller ou très similaire sont ce qu'on appelle du "contenu duplique"</t>
@@ -547,25 +469,133 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Toujours vérifier son site </t>
-  </si>
-  <si>
     <t>https://www.orixa-media.com/academie/referencement-naturel/redaction/contenu-duplique-impact-seo/</t>
   </si>
   <si>
-    <t>cohérence et longueur du contenu</t>
-  </si>
-  <si>
     <t>Visez 1500 mots pour le court contenu et entre 2100 et 2400 mots pour le long contenu pour votre page du site lorsque c'est cohérent et  pour vos articles de blog, vos pages d'expertises ou d'atualités</t>
   </si>
   <si>
-    <t>une bonne redaction web</t>
-  </si>
-  <si>
-    <t>Un contenu peut être long ou cours, ce n’est pas son nombre de mots qui va déterminer sa pertinence. Il n’y a pas de « one size fits all » !  Alternez les contenus longs comme les livres blancs ou encore des études, avec des articles plus courts pour diffuser des conseils, des check-lists…L’essentiel est de répondre à votre objectif qui est, au travers de tout contenu, de répondre aux questions que se posent votre cible, et de le faire avec authenticité et professionnalisme pour leur donner envie d’en lire davantage sur votre entreprise et vos services.</t>
-  </si>
-  <si>
     <t>https://digitalmint.ch/longueur-contenu-marketing-combien-de-mots-pour-vos-articles-de-blog/</t>
+  </si>
+  <si>
+    <t>SEO €</t>
+  </si>
+  <si>
+    <t>SEO (reformuler)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;&lt;/.htaccess&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> absent, il manque la balise G ZIP</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Toujours vérifier  le contenue de son site pour qu'il soit unique et non dupliquer  </t>
+  </si>
+  <si>
+    <t>C'est une méthode blackhat</t>
+  </si>
+  <si>
+    <t>Toujours mettre du texte brute au lieu du texte en image pour ne pas fausser le crawling des robots google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer toute les images en texte avec du texte pértinent </t>
+  </si>
+  <si>
+    <t>SE &amp;accessibilité x</t>
+  </si>
+  <si>
+    <t>SEO&amp;accessibilité x</t>
+  </si>
+  <si>
+    <t>Accessibilité x</t>
+  </si>
+  <si>
+    <t>SEO  x</t>
+  </si>
+  <si>
+    <t>Img Version Responsive  x</t>
+  </si>
+  <si>
+    <t>rendering du votre site en version &lt;&lt;mobile-friendly&gt;&gt; x</t>
+  </si>
+  <si>
+    <t>SEO  xxxxxx</t>
+  </si>
+  <si>
+    <t>Keywords: courte vs longue traine xxx</t>
+  </si>
+  <si>
+    <t>SEO xxxxx</t>
+  </si>
+  <si>
+    <t>Images trop grandes par rapport à leur contenant et non compressés xxx</t>
+  </si>
+  <si>
+    <t>Gérez vos avis      BG</t>
+  </si>
+  <si>
+    <t>La &lt;&lt;code-base&gt;&gt; n'est pas minifié  xxxx</t>
+  </si>
+  <si>
+    <t>Décidez si un CMS est adapté   BD</t>
+  </si>
+  <si>
+    <t>Décidez si l'installation d'un CDN       BD</t>
+  </si>
+  <si>
+    <t>cohérence et longueur du contenu  XXX</t>
+  </si>
+  <si>
+    <t>Vérifier que le site n'a pas de contenu dupliqué XXXX</t>
+  </si>
+  <si>
+    <t>XXXX</t>
+  </si>
+  <si>
+    <t>Balises canonique + Robots XXX</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Débloquez le téléchagement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>de vos pages XXX</t>
+    </r>
+  </si>
+  <si>
+    <t>Google My Business  XXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Il n’y a pas de « one size fits all » !  Alternez les contenus longs comme les livres blancs ou encore des études, avec des articles plus courts pour diffuser des conseils, des check-lists…L’essentiel est de répondre à votre objectif qui est, au travers de tout contenu, de répondre aux questions que se posent votre cible, et de le faire avec authenticité et professionnalisme pour leur donner envie d’en lire davantage sur votre entreprise et vos services.</t>
   </si>
 </sst>
 </file>
@@ -908,15 +938,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="G33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="21.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="251" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="157" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -958,385 +991,385 @@
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="G13" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G23" s="11" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>39</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="D35" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="G37" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1345,131 +1378,144 @@
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>12</v>
+      <c r="B51" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
